--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_027.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -173,13 +179,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -730,7 +736,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -822,7 +828,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
@@ -854,7 +860,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>32</v>
@@ -877,7 +883,7 @@
         <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>32</v>
@@ -900,7 +906,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>32</v>
@@ -946,7 +952,7 @@
         <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>32</v>
@@ -969,7 +975,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>32</v>
@@ -992,7 +998,7 @@
         <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>32</v>
@@ -1015,7 +1021,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>32</v>
@@ -1038,7 +1044,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>32</v>
@@ -1061,7 +1067,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>32</v>
@@ -1084,7 +1090,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>32</v>
@@ -1107,7 +1113,7 @@
         <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>32</v>
@@ -1144,7 +1150,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>30</v>
@@ -1153,7 +1159,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>32</v>
@@ -1207,3952 +1213,3952 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5163,19 +5169,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5186,19 +5192,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5209,19 +5215,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -5232,24 +5238,185 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="C213" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E208" s="2" t="s">
+      <c r="C214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_027.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1021,7 +1027,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>32</v>
@@ -1044,7 +1050,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>32</v>
@@ -1067,7 +1073,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>32</v>
@@ -1090,7 +1096,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>32</v>
@@ -1113,7 +1119,7 @@
         <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>32</v>
@@ -1136,7 +1142,7 @@
         <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>32</v>
@@ -1173,7 +1179,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>30</v>
@@ -1182,7 +1188,7 @@
         <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>32</v>
@@ -1236,4090 +1242,4090 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5330,19 +5336,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5353,19 +5359,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5376,19 +5382,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -5399,24 +5405,185 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="C220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E215" s="2" t="s">
+      <c r="C221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_027.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1050,7 +1056,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>32</v>
@@ -1073,7 +1079,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>32</v>
@@ -1096,7 +1102,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>32</v>
@@ -1119,7 +1125,7 @@
         <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>32</v>
@@ -1142,7 +1148,7 @@
         <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>32</v>
@@ -1165,7 +1171,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>32</v>
@@ -1202,7 +1208,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>30</v>
@@ -1211,7 +1217,7 @@
         <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>32</v>
@@ -1265,4228 +1271,4228 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -5497,19 +5503,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -5520,19 +5526,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -5543,19 +5549,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5566,24 +5572,185 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="C227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E222" s="2" t="s">
+      <c r="C228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="2" t="s">
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_027.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,=,3</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,!=,3</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4382,7 +4388,7 @@
         <v>55</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>103</v>
@@ -4405,7 +4411,7 @@
         <v>57</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>103</v>
@@ -4414,7 +4420,7 @@
         <v>58</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>104</v>
@@ -4793,22 +4799,22 @@
         <v>102</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="189">
@@ -4816,7 +4822,7 @@
         <v>102</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>13</v>
@@ -4825,13 +4831,13 @@
         <v>103</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="190">
@@ -4839,22 +4845,22 @@
         <v>102</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="191">
@@ -4862,22 +4868,22 @@
         <v>102</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="192">
@@ -4885,7 +4891,7 @@
         <v>102</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>13</v>
@@ -4894,13 +4900,13 @@
         <v>103</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="193">
@@ -4908,7 +4914,7 @@
         <v>102</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>13</v>
@@ -4917,13 +4923,13 @@
         <v>103</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="194">
@@ -4931,7 +4937,7 @@
         <v>102</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>13</v>
@@ -4940,13 +4946,13 @@
         <v>103</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195">
@@ -4954,22 +4960,22 @@
         <v>102</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="196">
@@ -4977,7 +4983,7 @@
         <v>102</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -4986,13 +4992,13 @@
         <v>103</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="197">
@@ -5000,7 +5006,7 @@
         <v>102</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5009,13 +5015,13 @@
         <v>103</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="198">
@@ -5023,7 +5029,7 @@
         <v>102</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5032,13 +5038,13 @@
         <v>103</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="199">
@@ -5046,7 +5052,7 @@
         <v>102</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5055,13 +5061,13 @@
         <v>103</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="200">
@@ -5069,7 +5075,7 @@
         <v>102</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5078,13 +5084,13 @@
         <v>103</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="201">
@@ -5092,7 +5098,7 @@
         <v>102</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5101,13 +5107,13 @@
         <v>103</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="202">
@@ -5115,7 +5121,7 @@
         <v>102</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5124,13 +5130,13 @@
         <v>103</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="203">
@@ -5138,7 +5144,7 @@
         <v>102</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5147,13 +5153,13 @@
         <v>103</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="204">
@@ -5161,7 +5167,7 @@
         <v>102</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5170,13 +5176,13 @@
         <v>103</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="205">
@@ -5184,7 +5190,7 @@
         <v>102</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5193,13 +5199,13 @@
         <v>103</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="206">
@@ -5207,7 +5213,7 @@
         <v>102</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5216,13 +5222,13 @@
         <v>103</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="207">
@@ -5230,7 +5236,7 @@
         <v>102</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5239,13 +5245,13 @@
         <v>103</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="208">
@@ -5253,7 +5259,7 @@
         <v>102</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5262,13 +5268,13 @@
         <v>103</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="209">
@@ -5276,7 +5282,7 @@
         <v>102</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5285,13 +5291,13 @@
         <v>103</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="210">
@@ -5299,7 +5305,7 @@
         <v>102</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5308,13 +5314,13 @@
         <v>103</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="211">
@@ -5322,22 +5328,22 @@
         <v>102</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="212">
@@ -5345,22 +5351,22 @@
         <v>102</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="213">
@@ -5368,22 +5374,22 @@
         <v>102</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="214">
@@ -5391,22 +5397,22 @@
         <v>102</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215">
@@ -5414,7 +5420,7 @@
         <v>102</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5423,13 +5429,13 @@
         <v>103</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="216">
@@ -5437,7 +5443,7 @@
         <v>102</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5446,13 +5452,13 @@
         <v>103</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="217">
@@ -5460,7 +5466,7 @@
         <v>102</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5469,76 +5475,76 @@
         <v>103</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -5549,19 +5555,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5572,19 +5578,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5595,19 +5601,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5618,19 +5624,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5641,19 +5647,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5664,19 +5670,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C226" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -5687,19 +5693,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -5710,19 +5716,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
@@ -5733,24 +5739,70 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="C229" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E229" s="2" t="s">
+      <c r="C230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_027.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -327,12 +327,6 @@
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,=,3</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,!=,3</t>
@@ -478,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4388,7 +4382,7 @@
         <v>55</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>103</v>
@@ -4411,7 +4405,7 @@
         <v>57</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>103</v>
@@ -4420,7 +4414,7 @@
         <v>58</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>104</v>
@@ -4799,22 +4793,22 @@
         <v>102</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="189">
@@ -4822,7 +4816,7 @@
         <v>102</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>13</v>
@@ -4831,13 +4825,13 @@
         <v>103</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190">
@@ -4845,22 +4839,22 @@
         <v>102</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191">
@@ -4868,22 +4862,22 @@
         <v>102</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192">
@@ -4891,7 +4885,7 @@
         <v>102</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>13</v>
@@ -4900,13 +4894,13 @@
         <v>103</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193">
@@ -4914,7 +4908,7 @@
         <v>102</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>13</v>
@@ -4923,13 +4917,13 @@
         <v>103</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="194">
@@ -4937,7 +4931,7 @@
         <v>102</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>13</v>
@@ -4946,13 +4940,13 @@
         <v>103</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="195">
@@ -4960,22 +4954,22 @@
         <v>102</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196">
@@ -4983,7 +4977,7 @@
         <v>102</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -4992,13 +4986,13 @@
         <v>103</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="197">
@@ -5006,7 +5000,7 @@
         <v>102</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5015,13 +5009,13 @@
         <v>103</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="198">
@@ -5029,7 +5023,7 @@
         <v>102</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5038,13 +5032,13 @@
         <v>103</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199">
@@ -5052,7 +5046,7 @@
         <v>102</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5061,13 +5055,13 @@
         <v>103</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="200">
@@ -5075,7 +5069,7 @@
         <v>102</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5084,13 +5078,13 @@
         <v>103</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="201">
@@ -5098,7 +5092,7 @@
         <v>102</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5107,13 +5101,13 @@
         <v>103</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="202">
@@ -5121,7 +5115,7 @@
         <v>102</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5130,13 +5124,13 @@
         <v>103</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="203">
@@ -5144,7 +5138,7 @@
         <v>102</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5153,13 +5147,13 @@
         <v>103</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="204">
@@ -5167,7 +5161,7 @@
         <v>102</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5176,13 +5170,13 @@
         <v>103</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="205">
@@ -5190,7 +5184,7 @@
         <v>102</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5199,13 +5193,13 @@
         <v>103</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="206">
@@ -5213,7 +5207,7 @@
         <v>102</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5222,13 +5216,13 @@
         <v>103</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="207">
@@ -5236,7 +5230,7 @@
         <v>102</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5245,13 +5239,13 @@
         <v>103</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208">
@@ -5259,7 +5253,7 @@
         <v>102</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5268,13 +5262,13 @@
         <v>103</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="209">
@@ -5282,7 +5276,7 @@
         <v>102</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5291,13 +5285,13 @@
         <v>103</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="210">
@@ -5305,7 +5299,7 @@
         <v>102</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5314,13 +5308,13 @@
         <v>103</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="211">
@@ -5328,22 +5322,22 @@
         <v>102</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="212">
@@ -5351,22 +5345,22 @@
         <v>102</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="213">
@@ -5374,22 +5368,22 @@
         <v>102</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="214">
@@ -5397,22 +5391,22 @@
         <v>102</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="215">
@@ -5420,7 +5414,7 @@
         <v>102</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5429,13 +5423,13 @@
         <v>103</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="216">
@@ -5443,7 +5437,7 @@
         <v>102</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5452,13 +5446,13 @@
         <v>103</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="217">
@@ -5466,7 +5460,7 @@
         <v>102</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5475,76 +5469,76 @@
         <v>103</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -5555,19 +5549,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E221" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5578,19 +5572,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5601,19 +5595,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E223" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5624,19 +5618,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E224" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5647,19 +5641,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5670,19 +5664,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -5693,19 +5687,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E227" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -5716,19 +5710,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
@@ -5739,70 +5733,24 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E229" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_027.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_027.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -478,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -800,7 +812,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>30</v>
@@ -823,7 +835,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -832,7 +844,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>32</v>
@@ -869,7 +881,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
@@ -892,7 +904,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>30</v>
@@ -901,7 +913,7 @@
         <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>32</v>
@@ -970,7 +982,7 @@
         <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>32</v>
@@ -993,7 +1005,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>32</v>
@@ -1039,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>32</v>
@@ -1085,7 +1097,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>32</v>
@@ -1223,7 +1235,7 @@
         <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>32</v>
@@ -1237,7 +1249,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>30</v>
@@ -1246,7 +1258,7 @@
         <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>32</v>
@@ -1260,7 +1272,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>30</v>
@@ -1269,7 +1281,7 @@
         <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>32</v>
@@ -1300,2808 +1312,2808 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="158">
@@ -4109,7 +4121,7 @@
         <v>102</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4118,13 +4130,13 @@
         <v>103</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="159">
@@ -4132,22 +4144,22 @@
         <v>102</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160">
@@ -4155,7 +4167,7 @@
         <v>102</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4164,13 +4176,13 @@
         <v>103</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="161">
@@ -4178,7 +4190,7 @@
         <v>102</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>13</v>
@@ -4187,13 +4199,13 @@
         <v>103</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162">
@@ -4201,7 +4213,7 @@
         <v>102</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
@@ -4210,13 +4222,13 @@
         <v>103</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="163">
@@ -4224,7 +4236,7 @@
         <v>102</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
@@ -4233,13 +4245,13 @@
         <v>103</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164">
@@ -4247,22 +4259,22 @@
         <v>102</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="165">
@@ -4270,7 +4282,7 @@
         <v>102</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4279,13 +4291,13 @@
         <v>103</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="166">
@@ -4293,7 +4305,7 @@
         <v>102</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4302,13 +4314,13 @@
         <v>103</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="167">
@@ -4316,7 +4328,7 @@
         <v>102</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4325,1484 +4337,1806 @@
         <v>103</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E220" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="C242" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E231" s="2" t="s">
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
+      <c r="B244" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>21</v>
       </c>
     </row>
